--- a/eurocode/loads.xlsx
+++ b/eurocode/loads.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/be37e365dce55da6/1A UC3M Mechanical Engineering/1A TUM/3rd Semester/Wind Engineering/Checkpoint Presentation/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/be37e365dce55da6/1A UC3M Mechanical Engineering/1A TUM/3rd Semester/Wind Engineering/Modelling and Simulation/BankofAmericaPlaza/BankOfAmericaPlaza_CFD/eurocode/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="28" documentId="8_{A18BC7F1-ECDD-4367-8839-411045EEBC5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{84A5825D-2C12-448F-B48F-9237708D2205}"/>
+  <xr:revisionPtr revIDLastSave="31" documentId="8_{A18BC7F1-ECDD-4367-8839-411045EEBC5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2C365328-0F65-47F2-8ECF-E9724A7DF99B}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{D68616F0-7188-44C6-9053-E857D15537CF}"/>
+    <workbookView minimized="1" xWindow="7416" yWindow="2592" windowWidth="10968" windowHeight="9012" xr2:uid="{D68616F0-7188-44C6-9053-E857D15537CF}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -6541,7 +6541,7 @@
   <dimension ref="B2:AB200"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
